--- a/src/earn/xlsx/errorNum.xlsx
+++ b/src/earn/xlsx/errorNum.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -104,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,6 +123,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -132,75 +137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,14 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,6 +159,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -238,9 +197,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,15 +242,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,13 +275,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,25 +419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,133 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,26 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,21 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +532,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,38 +1192,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/src/earn/xlsx/errorNum.xlsx
+++ b/src/earn/xlsx/errorNum.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -106,8 +104,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,6 +123,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -132,6 +145,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -139,17 +237,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,47 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,60 +265,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,16 +469,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -496,30 +494,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -542,6 +525,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,16 +547,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,38 +1192,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/src/earn/xlsx/errorNum.xlsx
+++ b/src/earn/xlsx/errorNum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>错误码配置</t>
   </si>
@@ -58,6 +58,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>描述(繁)</t>
+  </si>
+  <si>
     <t>$ErrorNumCfg</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>descHant</t>
   </si>
   <si>
     <t>u32</t>
@@ -122,6 +128,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,77 +210,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,39 +250,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,6 +281,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,175 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +475,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,61 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,21 +1080,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C13"/>
+  <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1098,92 +1105,125 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>700</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>800</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:4">
       <c r="B9" s="1">
         <v>7101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:4">
       <c r="B10" s="1">
         <v>7102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:4">
       <c r="B11" s="1">
         <v>7103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:4">
       <c r="B12" s="1">
         <v>8101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:4">
       <c r="B13" s="1">
         <v>1101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/errorNum.xlsx
+++ b/src/earn/xlsx/errorNum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>奖券类型错误</t>
   </si>
   <si>
-    <t>奖品以及兑完</t>
+    <t>奖品已经兑完</t>
   </si>
   <si>
     <t>获取排行榜数据失败</t>
@@ -108,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -128,6 +128,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -137,7 +151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,45 +180,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +235,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,24 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,19 +281,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +341,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,151 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +472,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,13 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,24 +549,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -801,7 +801,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/src/earn/xlsx/errorNum.xlsx
+++ b/src/earn/xlsx/errorNum.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>错误码配置</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>该类型矿山数量不足</t>
+  </si>
+  <si>
+    <t>参数不齐</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>取消支付</t>
+  </si>
+  <si>
+    <t>其他错误</t>
   </si>
 </sst>
 </file>
@@ -108,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,14 +141,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,128 +283,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,39 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +498,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +543,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -549,26 +563,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1226,6 +1238,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1">
+        <v>203</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/errorNum.xlsx
+++ b/src/earn/xlsx/errorNum.xlsx
@@ -112,7 +112,7 @@
     <t>取消支付</t>
   </si>
   <si>
-    <t>其他错误</t>
+    <t>支付失败</t>
   </si>
 </sst>
 </file>
@@ -120,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -141,22 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +169,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -184,25 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,47 +223,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,19 +293,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,163 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +484,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,8 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,39 +584,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
